--- a/Sprint2_Backlog_Template.xlsx
+++ b/Sprint2_Backlog_Template.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
